--- a/training_schedule.xlsx
+++ b/training_schedule.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\CV_training\CV_training\CV_training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ron Tohar\Desktop\הכשרה\CV_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B798172C-17C8-4D3F-BB91-D5C4702338A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10710" windowHeight="4220"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Topic</t>
   </si>
@@ -118,12 +130,15 @@
   </si>
   <si>
     <t>estimated time</t>
+  </si>
+  <si>
+    <t>skipped</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -438,21 +453,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.9140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.9375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.8125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -479,7 +494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -487,7 +502,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -497,26 +512,32 @@
       </c>
       <c r="D5">
         <f>SUM(D6:D11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -524,7 +545,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -532,7 +553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -540,7 +561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -548,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -561,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -569,7 +590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -577,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>17</v>
       </c>
@@ -585,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -593,7 +614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -601,7 +622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -609,7 +630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -617,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -625,7 +646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -638,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>24</v>
       </c>
@@ -646,7 +667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -654,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>26</v>
       </c>
@@ -662,7 +683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -675,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -683,7 +704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>28</v>
       </c>
@@ -691,7 +712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>29</v>
       </c>
@@ -699,7 +720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -712,12 +733,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>5</v>
       </c>

--- a/training_schedule.xlsx
+++ b/training_schedule.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\CV_training\CV_training\CV_training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sus85\OneDrive\Desktop\CV\CV_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FDED91-BAAF-4701-AE32-D49A6F11FC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10710" windowHeight="4220"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -123,12 +135,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -438,18 +450,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.9140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -476,7 +488,7 @@
       </c>
       <c r="D2">
         <f>SUM(D3)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -486,6 +498,9 @@
       <c r="C3">
         <v>0.5</v>
       </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -497,7 +512,7 @@
       </c>
       <c r="D5">
         <f>SUM(D6:D11)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -507,6 +522,9 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
@@ -515,6 +533,9 @@
       <c r="C7">
         <v>2</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -531,6 +552,9 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
@@ -548,7 +572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
